--- a/assets/files/excel/24123.xlsx
+++ b/assets/files/excel/24123.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Бачило\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="rFvGtSc+uT9lldzN+y+iY+5wgI3Hte2XVGFy2gBXrvc9fo8LmHkQFyNV8ro3zrW6XFTtrN8I1P9oiA6WSY1Rog==" workbookSaltValue="Q+sKM4NZRwpbWkZiqYLD1A==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+3RtPPCIGUKOPf3aarVBsAg+GYJAhH0Wmmc15ouxo5fCkggfjRwOYo4FexMgJzIdmPdnG/n/aNaLfOpX2GyVqg==" workbookSaltValue="t1vhdftalO039xc8kGiywg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="766"/>
   </bookViews>
@@ -677,7 +677,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -840,6 +840,9 @@
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -931,8 +934,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2219,7 +2222,7 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
+      <c r="A3" s="49"/>
       <c r="E3" s="1"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2227,29 +2230,29 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="48"/>
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="25"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
@@ -2257,14 +2260,14 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="25"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
@@ -2272,14 +2275,14 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="25"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -2287,22 +2290,22 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="52" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -5699,7 +5702,7 @@
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5710,7 +5713,8 @@
     <col min="4" max="4" width="8.85546875" style="1"/>
     <col min="5" max="5" width="19.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="8.85546875" style="1"/>
+    <col min="7" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
@@ -5750,99 +5754,99 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="25">
         <f>SUM(H8:H132)</f>
         <v>14</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f>IF(ЭБП_Вар1!G5='ЭБП_Вар1(решение)'!K5,"верно","не верно")</f>
+        <f>IF(ABS(ЭБП_Вар1!G5-'ЭБП_Вар1(решение)'!K5)&lt;0.1,"верно","не верно")</f>
         <v>не верно</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="25">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="76">
         <f>MIN(J8:J132)</f>
         <v>13710</v>
       </c>
       <c r="L6" s="2" t="str">
-        <f>IF(ЭБП_Вар1!G6=K6,"верно","не верно")</f>
+        <f>IF(ABS(ЭБП_Вар1!G6-K6)&lt;0.1,"верно","не верно")</f>
         <v>не верно</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="25">
         <f>K8</f>
         <v>134.73154362416108</v>
       </c>
       <c r="L7" s="2" t="str">
-        <f>IF(ЭБП_Вар1!G7='ЭБП_Вар1(решение)'!K7,"верно","не верно")</f>
+        <f>IF(ABS(ЭБП_Вар1!G7-'ЭБП_Вар1(решение)'!K7)&lt;1,"верно","не верно")</f>
         <v>не верно</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="25">
         <f>K10</f>
         <v>134.73154362416108</v>
@@ -5873,10 +5877,10 @@
       <c r="H9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="68"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="28" t="s">
         <v>12</v>
       </c>
